--- a/data/trans_dic/P15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.06699325278203001</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06785424850188149</v>
+        <v>0.0678542485018815</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06519084115428095</v>
+        <v>0.06456621793202176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0645410577099722</v>
+        <v>0.06567855278317909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04454277638305346</v>
+        <v>0.04480684912640982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05260033261241415</v>
+        <v>0.05324489424142164</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03671857684420295</v>
+        <v>0.03669755869756945</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0587519430029223</v>
+        <v>0.05697074654542805</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0533766051091041</v>
+        <v>0.0546039510313577</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05130711461019982</v>
+        <v>0.05112658005563592</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05467377455149532</v>
+        <v>0.05613612747229021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06624265249508915</v>
+        <v>0.0661586517177743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05460018001117067</v>
+        <v>0.05355883189175541</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05737361562866085</v>
+        <v>0.05636507297906931</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.109173767480224</v>
+        <v>0.1066952901227028</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1076763521841255</v>
+        <v>0.1051159646791828</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08212157415856333</v>
+        <v>0.0800344526763299</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09743024433579037</v>
+        <v>0.09788576583586658</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0696872567512231</v>
+        <v>0.07094774065754673</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1018247333424832</v>
+        <v>0.09781019902310915</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09704018780116604</v>
+        <v>0.09680584008867249</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08041178718103072</v>
+        <v>0.07860000958389657</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08144766329277409</v>
+        <v>0.08283474179813666</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09487701413584912</v>
+        <v>0.09614101799954425</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08231315347672744</v>
+        <v>0.08123667064394223</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08036804334205035</v>
+        <v>0.08087900752437353</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06889170818030847</v>
+        <v>0.06841373901752884</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06369995068567842</v>
+        <v>0.0640169740104195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04540157603854762</v>
+        <v>0.04523142029608369</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05396142201807629</v>
+        <v>0.05461417537353568</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04670591410398972</v>
+        <v>0.04674953797640641</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05664733091485554</v>
+        <v>0.05685286058849127</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03417067874373216</v>
+        <v>0.03391619838468649</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04629552065556358</v>
+        <v>0.04589552025317303</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06314109089537891</v>
+        <v>0.06187058464467876</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06472235494774799</v>
+        <v>0.0656438079320468</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04382607338569727</v>
+        <v>0.04395084947156241</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05413527026294302</v>
+        <v>0.05343618448500261</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1064537586556003</v>
+        <v>0.1071781664865296</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1008630902057769</v>
+        <v>0.1008097720282142</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07690724081942397</v>
+        <v>0.0760231776278365</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0938472252602648</v>
+        <v>0.09249981712035645</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07900363953703617</v>
+        <v>0.07542650956641314</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08905609457728553</v>
+        <v>0.08935765512089745</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06181851815942056</v>
+        <v>0.06188351298916035</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0754695212642064</v>
+        <v>0.07573440510915946</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0876817989609832</v>
+        <v>0.08576051474765303</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08864345260164409</v>
+        <v>0.09000332745739621</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06414153305492162</v>
+        <v>0.06305003344001572</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08014170320454476</v>
+        <v>0.07851716602372615</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04020446941625919</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06091727318819821</v>
+        <v>0.06091727318819822</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05920378145175195</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0500557563936796</v>
+        <v>0.05048807758357488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05989192235774967</v>
+        <v>0.05949976441365425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03441748243358907</v>
+        <v>0.03367646204272198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02811115231779051</v>
+        <v>0.02787850007514225</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03583589555107111</v>
+        <v>0.0357826055968017</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05600486007481745</v>
+        <v>0.055907888058536</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02688641022174172</v>
+        <v>0.02874036976715194</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04624420194131672</v>
+        <v>0.04684017946584038</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04657175413030599</v>
+        <v>0.04729681135140859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0629587043725594</v>
+        <v>0.06215153434809094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03445984959135298</v>
+        <v>0.03533133711248973</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04016840200673576</v>
+        <v>0.0405749450409351</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09178987362812313</v>
+        <v>0.09044990283571414</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0975748232651763</v>
+        <v>0.09997049121702854</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06697853781704974</v>
+        <v>0.06498560371142674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05803940385285857</v>
+        <v>0.05851546894676992</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06939747331471222</v>
+        <v>0.07033388749574072</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09554921515757343</v>
+        <v>0.09342694385751565</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05704555838329951</v>
+        <v>0.05903945800367477</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07743780640455374</v>
+        <v>0.07762393925691069</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07399485806179701</v>
+        <v>0.07339018124049536</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09075337698269631</v>
+        <v>0.08905254068304795</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05673402318254333</v>
+        <v>0.05781785359566044</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06200992763064447</v>
+        <v>0.06160243547787891</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0649401591428847</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06418406070059247</v>
+        <v>0.06418406070059246</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04462410657004073</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0441206153343361</v>
+        <v>0.0462226819968419</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07652544914117199</v>
+        <v>0.07662587415493978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04946245417822633</v>
+        <v>0.0514279287412136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04860771065764692</v>
+        <v>0.04975161625596157</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03309206128236127</v>
+        <v>0.03402211383777973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05369081013429562</v>
+        <v>0.05396864028113332</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04504804481218144</v>
+        <v>0.04535466778393607</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05336045328184461</v>
+        <v>0.0553262793967692</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04264408585793571</v>
+        <v>0.04211892235188872</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0697619169850778</v>
+        <v>0.06919347704009272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05206055918398942</v>
+        <v>0.05224927605013391</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05452332063929737</v>
+        <v>0.05540213085979089</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07441887451978677</v>
+        <v>0.07444493198101172</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1151921804181651</v>
+        <v>0.1161627335906211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08236068021627205</v>
+        <v>0.08347921005490394</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08237650070316982</v>
+        <v>0.08279449829483664</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05935499331535614</v>
+        <v>0.06036701132874936</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08540410657022693</v>
+        <v>0.08513262106009616</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07694159602130253</v>
+        <v>0.07740732061045121</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07748237476769382</v>
+        <v>0.07826502244254334</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.061308335526577</v>
+        <v>0.06148963386349872</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0943661803304464</v>
+        <v>0.09406593276758558</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07491493839653744</v>
+        <v>0.07571601483812859</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07587483983304182</v>
+        <v>0.07543621142436713</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.05881354040970593</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06256369914428099</v>
+        <v>0.062563699144281</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05190305141419276</v>
@@ -1229,7 +1229,7 @@
         <v>0.05401359446578705</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06215911422152013</v>
+        <v>0.06215911422152014</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.0628700989478881</v>
@@ -1241,7 +1241,7 @@
         <v>0.05636162025411929</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0623557707449064</v>
+        <v>0.06235577074490638</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07489102728451762</v>
+        <v>0.07447272804580804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05109440142445725</v>
+        <v>0.05080103231740923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05411317423927597</v>
+        <v>0.0548601524463539</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06368237157492769</v>
+        <v>0.06460890310234906</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04607045518126178</v>
+        <v>0.04647924367404022</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05561134505675745</v>
+        <v>0.05533809892483401</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07184875164190303</v>
+        <v>0.07183064796786121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05101192179540998</v>
+        <v>0.05108095029341373</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05692546160552825</v>
+        <v>0.05659137421023271</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09372113854246493</v>
+        <v>0.09366076894361532</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0673473647381875</v>
+        <v>0.06686066821998142</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07181674781885777</v>
+        <v>0.07346635289311175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08144079426792912</v>
+        <v>0.0825135538443319</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06226673053886253</v>
+        <v>0.06201478604536539</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0694679133265199</v>
+        <v>0.06950992358706531</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08446114883974158</v>
+        <v>0.08450028608582184</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06207361678220056</v>
+        <v>0.06243388843123297</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06810318948950893</v>
+        <v>0.06825525963253751</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>45243</v>
+        <v>44810</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45403</v>
+        <v>46203</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30057</v>
+        <v>30236</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36332</v>
+        <v>36777</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25275</v>
+        <v>25261</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40953</v>
+        <v>39711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>35914</v>
+        <v>36740</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37614</v>
+        <v>37482</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>75579</v>
+        <v>77601</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>92774</v>
+        <v>92656</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>73581</v>
+        <v>72178</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>81690</v>
+        <v>80254</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>75768</v>
+        <v>74048</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>75747</v>
+        <v>73946</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55416</v>
+        <v>54007</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67296</v>
+        <v>67611</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47969</v>
+        <v>48837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>70977</v>
+        <v>68179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>65292</v>
+        <v>65135</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58951</v>
+        <v>57623</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>112590</v>
+        <v>114508</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>132877</v>
+        <v>134647</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>110928</v>
+        <v>109478</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>114430</v>
+        <v>115157</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>66260</v>
+        <v>65800</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>64843</v>
+        <v>65166</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46420</v>
+        <v>46246</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>56601</v>
+        <v>57286</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45230</v>
+        <v>45272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58470</v>
+        <v>58683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35637</v>
+        <v>35372</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49575</v>
+        <v>49147</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>121874</v>
+        <v>119422</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>132689</v>
+        <v>134578</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>90516</v>
+        <v>90774</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>114754</v>
+        <v>113272</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>102387</v>
+        <v>103084</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>102673</v>
+        <v>102619</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78632</v>
+        <v>77728</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98438</v>
+        <v>97025</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>76507</v>
+        <v>73043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>91922</v>
+        <v>92234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64471</v>
+        <v>64539</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>80816</v>
+        <v>81099</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>169243</v>
+        <v>165534</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>181731</v>
+        <v>184519</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>132474</v>
+        <v>130220</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>169881</v>
+        <v>166437</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>33963</v>
+        <v>34257</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45375</v>
+        <v>45078</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26142</v>
+        <v>25579</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22575</v>
+        <v>22388</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>24506</v>
+        <v>24470</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>43526</v>
+        <v>43450</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21106</v>
+        <v>22562</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>37562</v>
+        <v>38046</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>63447</v>
+        <v>64435</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>96629</v>
+        <v>95390</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>53225</v>
+        <v>54571</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>64885</v>
+        <v>65542</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>62280</v>
+        <v>61371</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73925</v>
+        <v>75740</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50874</v>
+        <v>49360</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>46610</v>
+        <v>46992</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>47457</v>
+        <v>48097</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>74258</v>
+        <v>72609</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44781</v>
+        <v>46347</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62900</v>
+        <v>63051</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100807</v>
+        <v>99983</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>139288</v>
+        <v>136678</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>87629</v>
+        <v>89303</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>100167</v>
+        <v>99508</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41571</v>
+        <v>43552</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>72526</v>
+        <v>72621</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46374</v>
+        <v>48217</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>48125</v>
+        <v>49257</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34370</v>
+        <v>35336</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>56477</v>
+        <v>56770</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>47020</v>
+        <v>47340</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>59713</v>
+        <v>61912</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>84471</v>
+        <v>83431</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>139499</v>
+        <v>138362</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>103150</v>
+        <v>103524</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>114995</v>
+        <v>116849</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>70119</v>
+        <v>70144</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>109172</v>
+        <v>110092</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77219</v>
+        <v>78267</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>81558</v>
+        <v>81972</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>61647</v>
+        <v>62698</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>89837</v>
+        <v>89551</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>80310</v>
+        <v>80796</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>86706</v>
+        <v>87582</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>121442</v>
+        <v>121801</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>188698</v>
+        <v>188098</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>148432</v>
+        <v>150020</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>160028</v>
+        <v>159103</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>256635</v>
+        <v>255202</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>173432</v>
+        <v>172436</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>191169</v>
+        <v>193808</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>226602</v>
+        <v>229898</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>163299</v>
+        <v>164748</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>207722</v>
+        <v>206702</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>501870</v>
+        <v>501743</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>353966</v>
+        <v>354445</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>413735</v>
+        <v>411307</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>321162</v>
+        <v>320955</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>228601</v>
+        <v>226949</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>253711</v>
+        <v>259539</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>289792</v>
+        <v>293609</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>220707</v>
+        <v>219814</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>259480</v>
+        <v>259637</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>589969</v>
+        <v>590242</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>430722</v>
+        <v>433222</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>494975</v>
+        <v>496080</v>
       </c>
     </row>
     <row r="24">
